--- a/Inputs/waermebedarf.xlsx
+++ b/Inputs/waermebedarf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DianaEspinosaLozano\Desktop\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DianaEspinosaLozano\Desktop\Thesis\Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB3EDF39-6FF5-4A5C-8E03-D2472EE21C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7434C314-8914-48A1-8E68-4E82CC75E816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="60" windowWidth="14610" windowHeight="15585" xr2:uid="{E1C8AC05-483C-410D-A814-D9126F8A5C87}"/>
+    <workbookView minimized="1" xWindow="-25260" yWindow="1905" windowWidth="21600" windowHeight="11100" xr2:uid="{E1C8AC05-483C-410D-A814-D9126F8A5C87}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Inputs/waermebedarf.xlsx
+++ b/Inputs/waermebedarf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DianaEspinosaLozano\Desktop\Thesis\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7753ade917cafa6a/Desktop/thesis_del/hemsrechner/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7434C314-8914-48A1-8E68-4E82CC75E816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{7434C314-8914-48A1-8E68-4E82CC75E816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36AFA182-19BA-48D6-9FF3-8CF67E0B6425}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-25260" yWindow="1905" windowWidth="21600" windowHeight="11100" xr2:uid="{E1C8AC05-483C-410D-A814-D9126F8A5C87}"/>
+    <workbookView xWindow="-5600" yWindow="-21600" windowWidth="19380" windowHeight="20970" xr2:uid="{E1C8AC05-483C-410D-A814-D9126F8A5C87}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -122,8 +122,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -461,27 +467,27 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" customWidth="1"/>
+    <col min="3" max="3" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -492,7 +498,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -503,7 +509,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -514,7 +520,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -525,7 +531,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -536,7 +542,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -547,7 +553,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -558,7 +564,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -569,7 +575,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -580,7 +586,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -591,7 +597,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -602,7 +608,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -613,7 +619,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -624,7 +630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>16</v>
       </c>

--- a/Inputs/waermebedarf.xlsx
+++ b/Inputs/waermebedarf.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{7434C314-8914-48A1-8E68-4E82CC75E816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36AFA182-19BA-48D6-9FF3-8CF67E0B6425}"/>
   <bookViews>
-    <workbookView xWindow="-5600" yWindow="-21600" windowWidth="19380" windowHeight="20970" xr2:uid="{E1C8AC05-483C-410D-A814-D9126F8A5C87}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="16200" windowHeight="9982" xr2:uid="{E1C8AC05-483C-410D-A814-D9126F8A5C87}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -467,7 +467,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
